--- a/制单机器人测试用例.xlsx
+++ b/制单机器人测试用例.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1398" uniqueCount="475">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1398" uniqueCount="476">
   <si>
     <t>测试用例名称不可重复，不能短于两个字符，不能有特殊字符。
 [用例名称说明：长度必须在3到128个字符之间，只能包含中文、英文字母、数字和符号(空格，-_/|*&amp;`^~;；:：()（）{}=+,�￥……——’!@#$%.'+"'"+'[]?�！"、‘“”？—。，《》【】)] 
@@ -98,28 +98,31 @@
     <t>添加使用系统的员工</t>
   </si>
   <si>
+    <t>进入主页，点击【系统管理】&gt;团队管理</t>
+  </si>
+  <si>
+    <t>点击添加员工，输入相应员工信息</t>
+  </si>
+  <si>
+    <t>员工添加成功</t>
+  </si>
+  <si>
+    <t>正常</t>
+  </si>
+  <si>
+    <t>团队管理-禁用</t>
+  </si>
+  <si>
+    <t>10002</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>禁用使用系统的员工</t>
+  </si>
+  <si>
     <t>进入主页，点击系统管理-&gt;团队管理</t>
-  </si>
-  <si>
-    <t>点击添加员工，输入相应员工信息</t>
-  </si>
-  <si>
-    <t>员工添加成功</t>
-  </si>
-  <si>
-    <t>正常</t>
-  </si>
-  <si>
-    <t>团队管理-禁用</t>
-  </si>
-  <si>
-    <t>10002</t>
-  </si>
-  <si>
-    <t>a</t>
-  </si>
-  <si>
-    <t>禁用使用系统的员工</t>
   </si>
   <si>
     <t>选择一个员工，点击禁用</t>
@@ -1450,19 +1453,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="26">
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1501,23 +1497,17 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1533,82 +1523,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1630,7 +1552,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -1639,7 +1560,82 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1666,7 +1662,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1678,7 +1674,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1690,61 +1728,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1756,13 +1752,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1780,7 +1770,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1798,25 +1788,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1828,13 +1818,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1924,6 +1920,45 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -1956,23 +1991,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1980,23 +2000,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2011,162 +2016,153 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2174,46 +2170,46 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2566,8 +2562,8 @@
   <sheetPr/>
   <dimension ref="A1:P117"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A110" workbookViewId="0">
-      <selection activeCell="G120" sqref="G120"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L5" sqref="L5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -2610,7 +2606,7 @@
       <c r="O1" s="4"/>
       <c r="P1" s="4"/>
     </row>
-    <row r="2" ht="93.6" spans="1:16">
+    <row r="2" ht="62.4" spans="1:16">
       <c r="A2" s="5" t="s">
         <v>2</v>
       </c>
@@ -2660,7 +2656,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" ht="93.6" spans="1:16">
+    <row r="3" ht="31.2" spans="1:16">
       <c r="A3" s="7" t="s">
         <v>18</v>
       </c>
@@ -2702,7 +2698,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="4" ht="93.6" spans="1:16">
+    <row r="4" ht="31.2" spans="1:16">
       <c r="A4" s="7" t="s">
         <v>30</v>
       </c>
@@ -2730,13 +2726,13 @@
         <v>33</v>
       </c>
       <c r="K4" s="8" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="L4" s="9" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="M4" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="N4" s="11"/>
       <c r="O4" s="14"/>
@@ -2744,12 +2740,12 @@
         <v>29</v>
       </c>
     </row>
-    <row r="5" ht="93.6" spans="1:16">
+    <row r="5" ht="46.8" spans="1:16">
       <c r="A5" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C5" s="8" t="s">
         <v>20</v>
@@ -2769,16 +2765,16 @@
       <c r="H5" s="10"/>
       <c r="I5" s="10"/>
       <c r="J5" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="K5" s="8" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="L5" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="M5" s="7" t="s">
         <v>39</v>
-      </c>
-      <c r="M5" s="7" t="s">
-        <v>38</v>
       </c>
       <c r="N5" s="11"/>
       <c r="O5" s="14"/>
@@ -2786,12 +2782,12 @@
         <v>29</v>
       </c>
     </row>
-    <row r="6" ht="93.6" spans="1:16">
+    <row r="6" ht="31.2" spans="1:16">
       <c r="A6" s="7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C6" s="8" t="s">
         <v>20</v>
@@ -2811,16 +2807,16 @@
       <c r="H6" s="10"/>
       <c r="I6" s="10"/>
       <c r="J6" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K6" s="8" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="L6" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="M6" s="7" t="s">
         <v>43</v>
-      </c>
-      <c r="M6" s="7" t="s">
-        <v>42</v>
       </c>
       <c r="N6" s="11"/>
       <c r="O6" s="11"/>
@@ -2828,12 +2824,12 @@
         <v>29</v>
       </c>
     </row>
-    <row r="7" ht="93.6" spans="1:16">
+    <row r="7" ht="46.8" spans="1:16">
       <c r="A7" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C7" s="8" t="s">
         <v>20</v>
@@ -2853,16 +2849,16 @@
       <c r="H7" s="10"/>
       <c r="I7" s="10"/>
       <c r="J7" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K7" s="8" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="L7" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="M7" s="7" t="s">
         <v>47</v>
-      </c>
-      <c r="M7" s="7" t="s">
-        <v>46</v>
       </c>
       <c r="N7" s="11"/>
       <c r="O7" s="14"/>
@@ -2870,12 +2866,12 @@
         <v>29</v>
       </c>
     </row>
-    <row r="8" ht="109.2" spans="1:16">
+    <row r="8" ht="31.2" spans="1:16">
       <c r="A8" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C8" s="8" t="s">
         <v>20</v>
@@ -2890,21 +2886,21 @@
         <v>23</v>
       </c>
       <c r="G8" s="9" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H8" s="10"/>
       <c r="I8" s="10"/>
       <c r="J8" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K8" s="8" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="L8" s="9" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="M8" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="N8" s="11"/>
       <c r="O8" s="14"/>
@@ -2912,12 +2908,12 @@
         <v>29</v>
       </c>
     </row>
-    <row r="9" ht="156" spans="1:16">
+    <row r="9" ht="46.8" spans="1:16">
       <c r="A9" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C9" s="8" t="s">
         <v>20</v>
@@ -2932,21 +2928,21 @@
         <v>23</v>
       </c>
       <c r="G9" s="9" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H9" s="9"/>
       <c r="I9" s="10"/>
       <c r="J9" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K9" s="8" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="L9" s="9" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="M9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="N9" s="10"/>
       <c r="O9" s="7"/>
@@ -2954,12 +2950,12 @@
         <v>29</v>
       </c>
     </row>
-    <row r="10" ht="140.4" spans="1:16">
+    <row r="10" ht="46.8" spans="1:16">
       <c r="A10" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C10" s="8" t="s">
         <v>20</v>
@@ -2974,21 +2970,21 @@
         <v>23</v>
       </c>
       <c r="G10" s="9" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H10" s="10"/>
       <c r="I10" s="10"/>
       <c r="J10" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K10" s="8" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="L10" s="9" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="M10" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="N10" s="10"/>
       <c r="O10" s="7"/>
@@ -2996,12 +2992,12 @@
         <v>29</v>
       </c>
     </row>
-    <row r="11" ht="93.6" spans="1:16">
+    <row r="11" ht="31.2" spans="1:16">
       <c r="A11" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C11" s="8" t="s">
         <v>20</v>
@@ -3016,21 +3012,21 @@
         <v>23</v>
       </c>
       <c r="G11" s="9" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H11" s="10"/>
       <c r="I11" s="10"/>
       <c r="J11" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="K11" s="8" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="L11" s="9" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="M11" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="N11" s="10"/>
       <c r="O11" s="7"/>
@@ -3038,12 +3034,12 @@
         <v>29</v>
       </c>
     </row>
-    <row r="12" ht="93.6" spans="1:16">
+    <row r="12" ht="31.2" spans="1:16">
       <c r="A12" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C12" s="8" t="s">
         <v>20</v>
@@ -3058,21 +3054,21 @@
         <v>23</v>
       </c>
       <c r="G12" s="9" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H12" s="10"/>
       <c r="I12" s="10"/>
       <c r="J12" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="K12" s="8" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="L12" s="9" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="M12" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="N12" s="10"/>
       <c r="O12" s="7"/>
@@ -3080,12 +3076,12 @@
         <v>29</v>
       </c>
     </row>
-    <row r="13" ht="93.6" spans="1:16">
+    <row r="13" ht="31.2" spans="1:16">
       <c r="A13" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C13" s="8" t="s">
         <v>20</v>
@@ -3100,21 +3096,21 @@
         <v>23</v>
       </c>
       <c r="G13" s="9" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H13" s="10"/>
       <c r="I13" s="10"/>
       <c r="J13" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="K13" s="8" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="L13" s="9" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="M13" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="N13" s="10"/>
       <c r="O13" s="7"/>
@@ -3122,12 +3118,12 @@
         <v>29</v>
       </c>
     </row>
-    <row r="14" ht="93.6" spans="1:16">
+    <row r="14" ht="31.2" spans="1:16">
       <c r="A14" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C14" s="8" t="s">
         <v>20</v>
@@ -3142,21 +3138,21 @@
         <v>23</v>
       </c>
       <c r="G14" s="9" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H14" s="10"/>
       <c r="I14" s="10"/>
       <c r="J14" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K14" s="8" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="L14" s="9" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="M14" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="N14" s="10"/>
       <c r="O14" s="7"/>
@@ -3166,10 +3162,10 @@
     </row>
     <row r="15" ht="31.2" spans="1:16">
       <c r="A15" s="11" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C15" s="8" t="s">
         <v>20</v>
@@ -3184,21 +3180,21 @@
         <v>23</v>
       </c>
       <c r="G15" s="9" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H15" s="10"/>
       <c r="I15" s="10"/>
       <c r="J15" s="13" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K15" s="8" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="L15" s="9" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="M15" s="13" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="N15" s="10"/>
       <c r="O15" s="7"/>
@@ -3208,10 +3204,10 @@
     </row>
     <row r="16" s="1" customFormat="1" ht="46.8" customHeight="1" spans="1:16">
       <c r="A16" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C16" s="8" t="s">
         <v>20</v>
@@ -3226,21 +3222,21 @@
         <v>23</v>
       </c>
       <c r="G16" s="9" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="H16" s="8"/>
       <c r="I16" s="8"/>
       <c r="J16" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="K16" s="8" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="L16" s="9" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="M16" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="N16" s="8"/>
       <c r="O16" s="8"/>
@@ -3250,10 +3246,10 @@
     </row>
     <row r="17" s="1" customFormat="1" ht="46.8" customHeight="1" spans="1:16">
       <c r="A17" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C17" s="8" t="s">
         <v>20</v>
@@ -3268,21 +3264,21 @@
         <v>23</v>
       </c>
       <c r="G17" s="9" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="H17" s="10"/>
       <c r="I17" s="10"/>
       <c r="J17" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="K17" s="8" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="L17" s="9" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="M17" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="N17" s="11"/>
       <c r="O17" s="14"/>
@@ -3292,10 +3288,10 @@
     </row>
     <row r="18" s="1" customFormat="1" ht="46.8" customHeight="1" spans="1:16">
       <c r="A18" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C18" s="8" t="s">
         <v>20</v>
@@ -3310,21 +3306,21 @@
         <v>23</v>
       </c>
       <c r="G18" s="9" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="H18" s="10"/>
       <c r="I18" s="10"/>
       <c r="J18" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="K18" s="8" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="L18" s="9" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="M18" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="N18" s="11"/>
       <c r="O18" s="14"/>
@@ -3334,10 +3330,10 @@
     </row>
     <row r="19" s="1" customFormat="1" ht="46.8" customHeight="1" spans="1:16">
       <c r="A19" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C19" s="8" t="s">
         <v>20</v>
@@ -3352,21 +3348,21 @@
         <v>23</v>
       </c>
       <c r="G19" s="9" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="H19" s="10"/>
       <c r="I19" s="10"/>
       <c r="J19" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="K19" s="8" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="L19" s="9" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="M19" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="N19" s="11"/>
       <c r="O19" s="11"/>
@@ -3376,10 +3372,10 @@
     </row>
     <row r="20" s="1" customFormat="1" ht="46.8" customHeight="1" spans="1:16">
       <c r="A20" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C20" s="8" t="s">
         <v>20</v>
@@ -3394,21 +3390,21 @@
         <v>23</v>
       </c>
       <c r="G20" s="9" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="H20" s="10"/>
       <c r="I20" s="10"/>
       <c r="J20" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="K20" s="8" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="L20" s="9" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="M20" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="N20" s="11"/>
       <c r="O20" s="14"/>
@@ -3418,10 +3414,10 @@
     </row>
     <row r="21" s="1" customFormat="1" ht="46.8" customHeight="1" spans="1:16">
       <c r="A21" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C21" s="8" t="s">
         <v>20</v>
@@ -3436,21 +3432,21 @@
         <v>23</v>
       </c>
       <c r="G21" s="9" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="H21" s="10"/>
       <c r="I21" s="10"/>
       <c r="J21" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="K21" s="8" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="L21" s="9" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="M21" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="N21" s="11"/>
       <c r="O21" s="11"/>
@@ -3460,10 +3456,10 @@
     </row>
     <row r="22" s="1" customFormat="1" ht="46.8" customHeight="1" spans="1:16">
       <c r="A22" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C22" s="8" t="s">
         <v>20</v>
@@ -3478,21 +3474,21 @@
         <v>23</v>
       </c>
       <c r="G22" s="9" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="H22" s="10"/>
       <c r="I22" s="10"/>
       <c r="J22" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="K22" s="8" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="L22" s="9" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="M22" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="N22" s="11"/>
       <c r="O22" s="11"/>
@@ -3502,10 +3498,10 @@
     </row>
     <row r="23" s="1" customFormat="1" ht="46.8" customHeight="1" spans="1:16">
       <c r="A23" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C23" s="8" t="s">
         <v>20</v>
@@ -3520,21 +3516,21 @@
         <v>23</v>
       </c>
       <c r="G23" s="9" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="H23" s="10"/>
       <c r="I23" s="10"/>
       <c r="J23" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="K23" s="8" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="L23" s="9" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="M23" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="N23" s="11"/>
       <c r="O23" s="11"/>
@@ -3544,10 +3540,10 @@
     </row>
     <row r="24" s="1" customFormat="1" ht="46.8" customHeight="1" spans="1:16">
       <c r="A24" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C24" s="8" t="s">
         <v>20</v>
@@ -3562,21 +3558,21 @@
         <v>23</v>
       </c>
       <c r="G24" s="9" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="H24" s="10"/>
       <c r="I24" s="10"/>
       <c r="J24" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="K24" s="8" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="L24" s="9" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="M24" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="N24" s="11"/>
       <c r="O24" s="11"/>
@@ -3586,10 +3582,10 @@
     </row>
     <row r="25" s="1" customFormat="1" ht="46.8" customHeight="1" spans="1:16">
       <c r="A25" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C25" s="8" t="s">
         <v>20</v>
@@ -3604,21 +3600,21 @@
         <v>23</v>
       </c>
       <c r="G25" s="9" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="H25" s="10"/>
       <c r="I25" s="10"/>
       <c r="J25" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="K25" s="8" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="L25" s="9" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="M25" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="N25" s="11"/>
       <c r="O25" s="11"/>
@@ -3628,10 +3624,10 @@
     </row>
     <row r="26" s="1" customFormat="1" ht="46.8" customHeight="1" spans="1:16">
       <c r="A26" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C26" s="8" t="s">
         <v>20</v>
@@ -3646,21 +3642,21 @@
         <v>23</v>
       </c>
       <c r="G26" s="9" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="H26" s="10"/>
       <c r="I26" s="10"/>
       <c r="J26" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="K26" s="8" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="L26" s="9" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="M26" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="N26" s="11"/>
       <c r="O26" s="11"/>
@@ -3670,10 +3666,10 @@
     </row>
     <row r="27" s="1" customFormat="1" ht="46.8" customHeight="1" spans="1:16">
       <c r="A27" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C27" s="8" t="s">
         <v>20</v>
@@ -3688,21 +3684,21 @@
         <v>23</v>
       </c>
       <c r="G27" s="9" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="H27" s="10"/>
       <c r="I27" s="10"/>
       <c r="J27" s="7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="K27" s="8" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="L27" s="9" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="M27" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="N27" s="11"/>
       <c r="O27" s="11"/>
@@ -3712,10 +3708,10 @@
     </row>
     <row r="28" s="1" customFormat="1" ht="46.8" customHeight="1" spans="1:16">
       <c r="A28" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C28" s="8" t="s">
         <v>20</v>
@@ -3730,21 +3726,21 @@
         <v>23</v>
       </c>
       <c r="G28" s="9" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="H28" s="10"/>
       <c r="I28" s="10"/>
       <c r="J28" s="7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="K28" s="8" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="L28" s="9" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="M28" s="7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="N28" s="11"/>
       <c r="O28" s="11"/>
@@ -3754,10 +3750,10 @@
     </row>
     <row r="29" s="1" customFormat="1" ht="46.8" customHeight="1" spans="1:16">
       <c r="A29" s="7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C29" s="8" t="s">
         <v>20</v>
@@ -3772,21 +3768,21 @@
         <v>23</v>
       </c>
       <c r="G29" s="9" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="H29" s="10"/>
       <c r="I29" s="10"/>
       <c r="J29" s="7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="K29" s="8" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="L29" s="9" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="M29" s="7" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="N29" s="11"/>
       <c r="O29" s="11"/>
@@ -3796,10 +3792,10 @@
     </row>
     <row r="30" s="1" customFormat="1" ht="46.8" customHeight="1" spans="1:16">
       <c r="A30" s="7" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C30" s="8" t="s">
         <v>20</v>
@@ -3814,21 +3810,21 @@
         <v>23</v>
       </c>
       <c r="G30" s="9" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="H30" s="10"/>
       <c r="I30" s="10"/>
       <c r="J30" s="7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="K30" s="8" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="L30" s="9" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="M30" s="7" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="N30" s="11"/>
       <c r="O30" s="11"/>
@@ -3838,10 +3834,10 @@
     </row>
     <row r="31" s="1" customFormat="1" ht="46.8" customHeight="1" spans="1:16">
       <c r="A31" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C31" s="8" t="s">
         <v>20</v>
@@ -3856,21 +3852,21 @@
         <v>23</v>
       </c>
       <c r="G31" s="9" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="H31" s="10"/>
       <c r="I31" s="10"/>
       <c r="J31" s="7" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="K31" s="8" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="L31" s="9" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="M31" s="7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="N31" s="11"/>
       <c r="O31" s="11"/>
@@ -3880,10 +3876,10 @@
     </row>
     <row r="32" s="1" customFormat="1" ht="46.8" customHeight="1" spans="1:16">
       <c r="A32" s="7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B32" s="8" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C32" s="8" t="s">
         <v>20</v>
@@ -3898,21 +3894,21 @@
         <v>23</v>
       </c>
       <c r="G32" s="9" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="H32" s="10"/>
       <c r="I32" s="10"/>
       <c r="J32" s="7" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="K32" s="8" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="L32" s="9" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="M32" s="7" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="N32" s="11"/>
       <c r="O32" s="11"/>
@@ -3922,10 +3918,10 @@
     </row>
     <row r="33" s="1" customFormat="1" ht="46.8" customHeight="1" spans="1:16">
       <c r="A33" s="7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C33" s="8" t="s">
         <v>20</v>
@@ -3940,21 +3936,21 @@
         <v>23</v>
       </c>
       <c r="G33" s="9" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="H33" s="10"/>
       <c r="I33" s="10"/>
       <c r="J33" s="7" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="K33" s="8" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="L33" s="9" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="M33" s="7" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="N33" s="11"/>
       <c r="O33" s="11"/>
@@ -3964,10 +3960,10 @@
     </row>
     <row r="34" s="1" customFormat="1" ht="46.8" customHeight="1" spans="1:16">
       <c r="A34" s="7" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B34" s="8" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C34" s="8" t="s">
         <v>20</v>
@@ -3982,21 +3978,21 @@
         <v>23</v>
       </c>
       <c r="G34" s="9" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="H34" s="10"/>
       <c r="I34" s="10"/>
       <c r="J34" s="7" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="K34" s="8" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="L34" s="9" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="M34" s="7" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="N34" s="11"/>
       <c r="O34" s="11"/>
@@ -4006,10 +4002,10 @@
     </row>
     <row r="35" s="1" customFormat="1" ht="46.8" customHeight="1" spans="1:16">
       <c r="A35" s="7" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B35" s="8" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C35" s="8" t="s">
         <v>20</v>
@@ -4024,21 +4020,21 @@
         <v>23</v>
       </c>
       <c r="G35" s="9" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="H35" s="10"/>
       <c r="I35" s="10"/>
       <c r="J35" s="7" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="K35" s="8" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="L35" s="9" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="M35" s="7" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="N35" s="11"/>
       <c r="O35" s="11"/>
@@ -4048,10 +4044,10 @@
     </row>
     <row r="36" s="1" customFormat="1" ht="46.8" customHeight="1" spans="1:16">
       <c r="A36" s="7" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B36" s="8" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C36" s="8" t="s">
         <v>20</v>
@@ -4066,21 +4062,21 @@
         <v>23</v>
       </c>
       <c r="G36" s="9" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="H36" s="10"/>
       <c r="I36" s="10"/>
       <c r="J36" s="7" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="K36" s="8" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="L36" s="9" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="M36" s="7" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="N36" s="11"/>
       <c r="O36" s="11"/>
@@ -4090,10 +4086,10 @@
     </row>
     <row r="37" s="1" customFormat="1" ht="46.8" customHeight="1" spans="1:16">
       <c r="A37" s="7" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B37" s="8" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C37" s="8" t="s">
         <v>20</v>
@@ -4108,21 +4104,21 @@
         <v>23</v>
       </c>
       <c r="G37" s="9" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="H37" s="10"/>
       <c r="I37" s="10"/>
       <c r="J37" s="7" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="K37" s="8" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="L37" s="9" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="M37" s="7" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="N37" s="11"/>
       <c r="O37" s="11"/>
@@ -4132,10 +4128,10 @@
     </row>
     <row r="38" s="1" customFormat="1" ht="46.8" customHeight="1" spans="1:16">
       <c r="A38" s="7" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B38" s="8" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C38" s="8" t="s">
         <v>20</v>
@@ -4150,21 +4146,21 @@
         <v>23</v>
       </c>
       <c r="G38" s="9" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="H38" s="10"/>
       <c r="I38" s="10"/>
       <c r="J38" s="7" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="K38" s="8" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="L38" s="9" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="M38" s="7" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="N38" s="11"/>
       <c r="O38" s="11"/>
@@ -4174,10 +4170,10 @@
     </row>
     <row r="39" s="1" customFormat="1" ht="46.8" customHeight="1" spans="1:16">
       <c r="A39" s="7" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B39" s="8" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C39" s="8" t="s">
         <v>20</v>
@@ -4192,21 +4188,21 @@
         <v>23</v>
       </c>
       <c r="G39" s="9" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="H39" s="10"/>
       <c r="I39" s="10"/>
       <c r="J39" s="7" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="K39" s="8" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="L39" s="9" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="M39" s="7" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="N39" s="11"/>
       <c r="O39" s="11"/>
@@ -4216,10 +4212,10 @@
     </row>
     <row r="40" s="1" customFormat="1" ht="46.8" customHeight="1" spans="1:16">
       <c r="A40" s="7" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B40" s="8" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C40" s="8" t="s">
         <v>20</v>
@@ -4234,21 +4230,21 @@
         <v>23</v>
       </c>
       <c r="G40" s="9" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="H40" s="10"/>
       <c r="I40" s="10"/>
       <c r="J40" s="7" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="K40" s="8" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="L40" s="9" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="M40" s="7" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="N40" s="11"/>
       <c r="O40" s="11"/>
@@ -4258,10 +4254,10 @@
     </row>
     <row r="41" s="1" customFormat="1" ht="46.8" customHeight="1" spans="1:16">
       <c r="A41" s="7" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B41" s="8" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C41" s="8" t="s">
         <v>20</v>
@@ -4276,21 +4272,21 @@
         <v>23</v>
       </c>
       <c r="G41" s="9" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="H41" s="8"/>
       <c r="I41" s="8"/>
       <c r="J41" s="7" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="K41" s="8" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="L41" s="9" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="M41" s="7" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="N41" s="8"/>
       <c r="O41" s="8"/>
@@ -4300,10 +4296,10 @@
     </row>
     <row r="42" s="1" customFormat="1" ht="46.8" customHeight="1" spans="1:16">
       <c r="A42" s="7" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B42" s="8" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C42" s="8" t="s">
         <v>20</v>
@@ -4318,21 +4314,21 @@
         <v>23</v>
       </c>
       <c r="G42" s="9" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="H42" s="10"/>
       <c r="I42" s="10"/>
       <c r="J42" s="7" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="K42" s="8" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="L42" s="9" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="M42" s="7" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="N42" s="11"/>
       <c r="O42" s="14"/>
@@ -4342,10 +4338,10 @@
     </row>
     <row r="43" s="1" customFormat="1" ht="46.8" customHeight="1" spans="1:16">
       <c r="A43" s="7" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B43" s="8" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C43" s="8" t="s">
         <v>20</v>
@@ -4360,21 +4356,21 @@
         <v>23</v>
       </c>
       <c r="G43" s="9" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="H43" s="10"/>
       <c r="I43" s="10"/>
       <c r="J43" s="7" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="K43" s="8" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="L43" s="9" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="M43" s="7" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="N43" s="11"/>
       <c r="O43" s="14"/>
@@ -4384,10 +4380,10 @@
     </row>
     <row r="44" s="1" customFormat="1" ht="46.8" customHeight="1" spans="1:16">
       <c r="A44" s="7" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B44" s="8" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C44" s="8" t="s">
         <v>20</v>
@@ -4402,21 +4398,21 @@
         <v>23</v>
       </c>
       <c r="G44" s="9" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="H44" s="10"/>
       <c r="I44" s="10"/>
       <c r="J44" s="7" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="K44" s="8" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="L44" s="9" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="M44" s="7" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="N44" s="11"/>
       <c r="O44" s="11"/>
@@ -4426,10 +4422,10 @@
     </row>
     <row r="45" s="1" customFormat="1" ht="46.8" customHeight="1" spans="1:16">
       <c r="A45" s="7" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B45" s="8" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C45" s="8" t="s">
         <v>20</v>
@@ -4444,21 +4440,21 @@
         <v>23</v>
       </c>
       <c r="G45" s="9" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="H45" s="10"/>
       <c r="I45" s="10"/>
       <c r="J45" s="7" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="K45" s="8" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="L45" s="9" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="M45" s="7" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="N45" s="11"/>
       <c r="O45" s="14"/>
@@ -4468,10 +4464,10 @@
     </row>
     <row r="46" s="1" customFormat="1" ht="46.8" customHeight="1" spans="1:16">
       <c r="A46" s="7" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B46" s="8" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C46" s="8" t="s">
         <v>20</v>
@@ -4486,21 +4482,21 @@
         <v>23</v>
       </c>
       <c r="G46" s="9" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="H46" s="10"/>
       <c r="I46" s="10"/>
       <c r="J46" s="7" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="K46" s="8" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="L46" s="9" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="M46" s="7" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="N46" s="11"/>
       <c r="O46" s="11"/>
@@ -4510,10 +4506,10 @@
     </row>
     <row r="47" s="1" customFormat="1" ht="46.8" customHeight="1" spans="1:16">
       <c r="A47" s="7" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="B47" s="8" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="C47" s="8" t="s">
         <v>20</v>
@@ -4522,27 +4518,27 @@
         <v>21</v>
       </c>
       <c r="E47" s="8" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="F47" s="9" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="G47" s="9" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="H47" s="10"/>
       <c r="I47" s="10"/>
       <c r="J47" s="7" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="K47" s="8" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="L47" s="9" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="M47" s="7" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="N47" s="11"/>
       <c r="O47" s="11"/>
@@ -4552,10 +4548,10 @@
     </row>
     <row r="48" s="1" customFormat="1" ht="46.8" customHeight="1" spans="1:16">
       <c r="A48" s="7" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="B48" s="8" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="C48" s="8" t="s">
         <v>20</v>
@@ -4570,21 +4566,21 @@
         <v>23</v>
       </c>
       <c r="G48" s="9" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="H48" s="10"/>
       <c r="I48" s="10"/>
       <c r="J48" s="7" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="K48" s="8" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="L48" s="9" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="M48" s="7" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="N48" s="11"/>
       <c r="O48" s="11"/>
@@ -4594,10 +4590,10 @@
     </row>
     <row r="49" s="1" customFormat="1" ht="46.8" customHeight="1" spans="1:16">
       <c r="A49" s="7" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="B49" s="8" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="C49" s="8" t="s">
         <v>20</v>
@@ -4612,21 +4608,21 @@
         <v>23</v>
       </c>
       <c r="G49" s="9" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="H49" s="10"/>
       <c r="I49" s="10"/>
       <c r="J49" s="7" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="K49" s="8" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="L49" s="9" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="M49" s="7" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="N49" s="11"/>
       <c r="O49" s="11"/>
@@ -4636,10 +4632,10 @@
     </row>
     <row r="50" s="1" customFormat="1" ht="46.8" customHeight="1" spans="1:16">
       <c r="A50" s="7" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="B50" s="8" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="C50" s="8" t="s">
         <v>20</v>
@@ -4654,21 +4650,21 @@
         <v>23</v>
       </c>
       <c r="G50" s="9" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="H50" s="10"/>
       <c r="I50" s="10"/>
       <c r="J50" s="7" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="K50" s="8" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="L50" s="9" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="M50" s="7" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="N50" s="11"/>
       <c r="O50" s="11"/>
@@ -4678,10 +4674,10 @@
     </row>
     <row r="51" s="1" customFormat="1" ht="46.8" customHeight="1" spans="1:16">
       <c r="A51" s="7" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="B51" s="8" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="C51" s="8" t="s">
         <v>20</v>
@@ -4696,21 +4692,21 @@
         <v>23</v>
       </c>
       <c r="G51" s="9" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="H51" s="10"/>
       <c r="I51" s="10"/>
       <c r="J51" s="7" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="K51" s="8" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="L51" s="9" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="M51" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="N51" s="11"/>
       <c r="O51" s="11"/>
@@ -4720,10 +4716,10 @@
     </row>
     <row r="52" s="1" customFormat="1" ht="46.8" customHeight="1" spans="1:16">
       <c r="A52" s="7" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="B52" s="8" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="C52" s="8" t="s">
         <v>20</v>
@@ -4738,21 +4734,21 @@
         <v>23</v>
       </c>
       <c r="G52" s="9" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="H52" s="10"/>
       <c r="I52" s="10"/>
       <c r="J52" s="7" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="K52" s="8" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="L52" s="9" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="M52" s="7" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="N52" s="11"/>
       <c r="O52" s="11"/>
@@ -4762,10 +4758,10 @@
     </row>
     <row r="53" s="1" customFormat="1" ht="46.8" customHeight="1" spans="1:16">
       <c r="A53" s="7" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="B53" s="8" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="C53" s="8" t="s">
         <v>20</v>
@@ -4780,21 +4776,21 @@
         <v>23</v>
       </c>
       <c r="G53" s="9" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="H53" s="8"/>
       <c r="I53" s="8"/>
       <c r="J53" s="7" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="K53" s="8" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="L53" s="9" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="M53" s="7" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="N53" s="8"/>
       <c r="O53" s="8"/>
@@ -4804,10 +4800,10 @@
     </row>
     <row r="54" s="1" customFormat="1" ht="46.8" customHeight="1" spans="1:16">
       <c r="A54" s="7" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="B54" s="8" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="C54" s="8" t="s">
         <v>20</v>
@@ -4822,21 +4818,21 @@
         <v>23</v>
       </c>
       <c r="G54" s="9" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="H54" s="10"/>
       <c r="I54" s="10"/>
       <c r="J54" s="7" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="K54" s="8" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="L54" s="9" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="M54" s="7" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="N54" s="11"/>
       <c r="O54" s="14"/>
@@ -4846,10 +4842,10 @@
     </row>
     <row r="55" s="1" customFormat="1" ht="46.8" customHeight="1" spans="1:16">
       <c r="A55" s="7" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="B55" s="8" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C55" s="8" t="s">
         <v>20</v>
@@ -4864,21 +4860,21 @@
         <v>23</v>
       </c>
       <c r="G55" s="9" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="H55" s="10"/>
       <c r="I55" s="10"/>
       <c r="J55" s="7" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="K55" s="8" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="L55" s="9" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="M55" s="7" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="N55" s="11"/>
       <c r="O55" s="14"/>
@@ -4888,10 +4884,10 @@
     </row>
     <row r="56" s="1" customFormat="1" ht="46.8" customHeight="1" spans="1:16">
       <c r="A56" s="7" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B56" s="8" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="C56" s="8" t="s">
         <v>20</v>
@@ -4906,21 +4902,21 @@
         <v>23</v>
       </c>
       <c r="G56" s="9" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="H56" s="10"/>
       <c r="I56" s="10"/>
       <c r="J56" s="7" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="K56" s="8" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="L56" s="9" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="M56" s="7" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="N56" s="11"/>
       <c r="O56" s="11"/>
@@ -4930,10 +4926,10 @@
     </row>
     <row r="57" s="1" customFormat="1" ht="46.8" customHeight="1" spans="1:16">
       <c r="A57" s="7" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="B57" s="8" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="C57" s="8" t="s">
         <v>20</v>
@@ -4948,21 +4944,21 @@
         <v>23</v>
       </c>
       <c r="G57" s="9" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="H57" s="10"/>
       <c r="I57" s="10"/>
       <c r="J57" s="7" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="K57" s="8" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="L57" s="9" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="M57" s="7" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="N57" s="11"/>
       <c r="O57" s="14"/>
@@ -4972,10 +4968,10 @@
     </row>
     <row r="58" s="1" customFormat="1" ht="46.8" customHeight="1" spans="1:16">
       <c r="A58" s="7" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="B58" s="8" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C58" s="8" t="s">
         <v>20</v>
@@ -4990,21 +4986,21 @@
         <v>23</v>
       </c>
       <c r="G58" s="9" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="H58" s="10"/>
       <c r="I58" s="10"/>
       <c r="J58" s="7" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="K58" s="8" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="L58" s="9" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="M58" s="7" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="N58" s="11"/>
       <c r="O58" s="11"/>
@@ -5014,10 +5010,10 @@
     </row>
     <row r="59" s="1" customFormat="1" ht="46.8" customHeight="1" spans="1:16">
       <c r="A59" s="7" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B59" s="8" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C59" s="8" t="s">
         <v>20</v>
@@ -5026,27 +5022,27 @@
         <v>21</v>
       </c>
       <c r="E59" s="8" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="F59" s="9" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="G59" s="9" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="H59" s="10"/>
       <c r="I59" s="10"/>
       <c r="J59" s="7" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="K59" s="8" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="L59" s="9" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="M59" s="7" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="N59" s="11"/>
       <c r="O59" s="11"/>
@@ -5056,10 +5052,10 @@
     </row>
     <row r="60" s="1" customFormat="1" ht="46.8" customHeight="1" spans="1:16">
       <c r="A60" s="7" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="B60" s="8" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="C60" s="8" t="s">
         <v>20</v>
@@ -5074,21 +5070,21 @@
         <v>23</v>
       </c>
       <c r="G60" s="9" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="H60" s="10"/>
       <c r="I60" s="10"/>
       <c r="J60" s="7" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="K60" s="8" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="L60" s="9" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="M60" s="7" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="N60" s="11"/>
       <c r="O60" s="11"/>
@@ -5098,10 +5094,10 @@
     </row>
     <row r="61" s="1" customFormat="1" ht="46.8" customHeight="1" spans="1:16">
       <c r="A61" s="7" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="B61" s="8" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="C61" s="8" t="s">
         <v>20</v>
@@ -5116,21 +5112,21 @@
         <v>23</v>
       </c>
       <c r="G61" s="9" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="H61" s="10"/>
       <c r="I61" s="10"/>
       <c r="J61" s="7" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="K61" s="8" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="L61" s="9" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="M61" s="7" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="N61" s="11"/>
       <c r="O61" s="11"/>
@@ -5140,10 +5136,10 @@
     </row>
     <row r="62" s="1" customFormat="1" ht="46.8" customHeight="1" spans="1:16">
       <c r="A62" s="7" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B62" s="8" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="C62" s="8" t="s">
         <v>20</v>
@@ -5158,21 +5154,21 @@
         <v>23</v>
       </c>
       <c r="G62" s="9" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="H62" s="10"/>
       <c r="I62" s="10"/>
       <c r="J62" s="7" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="K62" s="8" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="L62" s="9" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="M62" s="7" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="N62" s="11"/>
       <c r="O62" s="11"/>
@@ -5182,10 +5178,10 @@
     </row>
     <row r="63" s="1" customFormat="1" ht="46.8" customHeight="1" spans="1:16">
       <c r="A63" s="7" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="B63" s="8" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="C63" s="8" t="s">
         <v>20</v>
@@ -5200,21 +5196,21 @@
         <v>23</v>
       </c>
       <c r="G63" s="9" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="H63" s="10"/>
       <c r="I63" s="10"/>
       <c r="J63" s="7" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="K63" s="8" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="L63" s="9" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="M63" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="N63" s="11"/>
       <c r="O63" s="11"/>
@@ -5224,10 +5220,10 @@
     </row>
     <row r="64" s="1" customFormat="1" ht="46.8" customHeight="1" spans="1:16">
       <c r="A64" s="7" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="B64" s="8" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="C64" s="8" t="s">
         <v>20</v>
@@ -5242,21 +5238,21 @@
         <v>23</v>
       </c>
       <c r="G64" s="9" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="H64" s="10"/>
       <c r="I64" s="10"/>
       <c r="J64" s="7" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="K64" s="8" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="L64" s="9" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="M64" s="7" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="N64" s="11"/>
       <c r="O64" s="11"/>
@@ -5266,10 +5262,10 @@
     </row>
     <row r="65" s="1" customFormat="1" ht="46.8" customHeight="1" spans="1:16">
       <c r="A65" s="7" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="B65" s="8" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="C65" s="8" t="s">
         <v>20</v>
@@ -5284,21 +5280,21 @@
         <v>23</v>
       </c>
       <c r="G65" s="9" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="H65" s="8"/>
       <c r="I65" s="8"/>
       <c r="J65" s="7" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="K65" s="8" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="L65" s="9" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="M65" s="7" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="N65" s="8"/>
       <c r="O65" s="8"/>
@@ -5308,10 +5304,10 @@
     </row>
     <row r="66" s="1" customFormat="1" ht="46.8" customHeight="1" spans="1:16">
       <c r="A66" s="7" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B66" s="8" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="C66" s="8" t="s">
         <v>20</v>
@@ -5326,21 +5322,21 @@
         <v>23</v>
       </c>
       <c r="G66" s="9" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="H66" s="10"/>
       <c r="I66" s="10"/>
       <c r="J66" s="7" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="K66" s="8" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="L66" s="9" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="M66" s="7" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="N66" s="11"/>
       <c r="O66" s="14"/>
@@ -5350,10 +5346,10 @@
     </row>
     <row r="67" s="1" customFormat="1" ht="46.8" customHeight="1" spans="1:16">
       <c r="A67" s="7" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="B67" s="8" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="C67" s="8" t="s">
         <v>20</v>
@@ -5368,21 +5364,21 @@
         <v>23</v>
       </c>
       <c r="G67" s="9" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="H67" s="10"/>
       <c r="I67" s="10"/>
       <c r="J67" s="7" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="K67" s="8" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="L67" s="9" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="M67" s="7" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="N67" s="11"/>
       <c r="O67" s="14"/>
@@ -5392,10 +5388,10 @@
     </row>
     <row r="68" s="1" customFormat="1" ht="46.8" customHeight="1" spans="1:16">
       <c r="A68" s="7" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="B68" s="8" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="C68" s="8" t="s">
         <v>20</v>
@@ -5410,21 +5406,21 @@
         <v>23</v>
       </c>
       <c r="G68" s="9" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="H68" s="10"/>
       <c r="I68" s="10"/>
       <c r="J68" s="7" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="K68" s="8" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="L68" s="9" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="M68" s="7" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="N68" s="11"/>
       <c r="O68" s="11"/>
@@ -5434,10 +5430,10 @@
     </row>
     <row r="69" s="1" customFormat="1" ht="46.8" customHeight="1" spans="1:16">
       <c r="A69" s="7" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="B69" s="8" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="C69" s="8" t="s">
         <v>20</v>
@@ -5452,21 +5448,21 @@
         <v>23</v>
       </c>
       <c r="G69" s="9" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="H69" s="10"/>
       <c r="I69" s="10"/>
       <c r="J69" s="7" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="K69" s="8" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="L69" s="9" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="M69" s="7" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="N69" s="11"/>
       <c r="O69" s="14"/>
@@ -5476,10 +5472,10 @@
     </row>
     <row r="70" s="1" customFormat="1" ht="46.8" customHeight="1" spans="1:16">
       <c r="A70" s="7" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="B70" s="8" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="C70" s="8" t="s">
         <v>20</v>
@@ -5494,21 +5490,21 @@
         <v>23</v>
       </c>
       <c r="G70" s="9" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="H70" s="10"/>
       <c r="I70" s="10"/>
       <c r="J70" s="7" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="K70" s="8" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="L70" s="9" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="M70" s="7" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="N70" s="11"/>
       <c r="O70" s="11"/>
@@ -5518,10 +5514,10 @@
     </row>
     <row r="71" s="1" customFormat="1" ht="46.8" customHeight="1" spans="1:16">
       <c r="A71" s="7" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="B71" s="8" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="C71" s="8" t="s">
         <v>20</v>
@@ -5530,27 +5526,27 @@
         <v>21</v>
       </c>
       <c r="E71" s="8" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="F71" s="9" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="G71" s="9" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="H71" s="10"/>
       <c r="I71" s="10"/>
       <c r="J71" s="7" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="K71" s="8" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="L71" s="9" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="M71" s="7" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="N71" s="11"/>
       <c r="O71" s="11"/>
@@ -5560,10 +5556,10 @@
     </row>
     <row r="72" s="1" customFormat="1" ht="46.8" customHeight="1" spans="1:16">
       <c r="A72" s="7" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="B72" s="8" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="C72" s="8" t="s">
         <v>20</v>
@@ -5578,21 +5574,21 @@
         <v>23</v>
       </c>
       <c r="G72" s="9" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="H72" s="10"/>
       <c r="I72" s="10"/>
       <c r="J72" s="7" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="K72" s="8" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="L72" s="9" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="M72" s="7" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="N72" s="11"/>
       <c r="O72" s="11"/>
@@ -5602,10 +5598,10 @@
     </row>
     <row r="73" s="1" customFormat="1" ht="46.8" customHeight="1" spans="1:16">
       <c r="A73" s="7" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="B73" s="8" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="C73" s="8" t="s">
         <v>20</v>
@@ -5620,21 +5616,21 @@
         <v>23</v>
       </c>
       <c r="G73" s="9" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="H73" s="10"/>
       <c r="I73" s="10"/>
       <c r="J73" s="7" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="K73" s="8" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="L73" s="9" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="M73" s="7" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="N73" s="11"/>
       <c r="O73" s="11"/>
@@ -5644,10 +5640,10 @@
     </row>
     <row r="74" s="1" customFormat="1" ht="46.8" customHeight="1" spans="1:16">
       <c r="A74" s="7" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="B74" s="8" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="C74" s="8" t="s">
         <v>20</v>
@@ -5662,21 +5658,21 @@
         <v>23</v>
       </c>
       <c r="G74" s="9" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="H74" s="10"/>
       <c r="I74" s="10"/>
       <c r="J74" s="7" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="K74" s="8" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="L74" s="9" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="M74" s="7" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="N74" s="11"/>
       <c r="O74" s="11"/>
@@ -5686,10 +5682,10 @@
     </row>
     <row r="75" s="1" customFormat="1" ht="46.8" customHeight="1" spans="1:16">
       <c r="A75" s="7" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="B75" s="8" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="C75" s="8" t="s">
         <v>20</v>
@@ -5704,21 +5700,21 @@
         <v>23</v>
       </c>
       <c r="G75" s="9" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="H75" s="10"/>
       <c r="I75" s="10"/>
       <c r="J75" s="7" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="K75" s="8" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="L75" s="9" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="M75" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="N75" s="11"/>
       <c r="O75" s="11"/>
@@ -5728,10 +5724,10 @@
     </row>
     <row r="76" s="1" customFormat="1" ht="46.8" customHeight="1" spans="1:16">
       <c r="A76" s="7" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="B76" s="8" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="C76" s="8" t="s">
         <v>20</v>
@@ -5746,21 +5742,21 @@
         <v>23</v>
       </c>
       <c r="G76" s="9" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="H76" s="10"/>
       <c r="I76" s="10"/>
       <c r="J76" s="7" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="K76" s="8" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="L76" s="9" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="M76" s="7" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="N76" s="11"/>
       <c r="O76" s="11"/>
@@ -5770,10 +5766,10 @@
     </row>
     <row r="77" s="1" customFormat="1" ht="46.8" customHeight="1" spans="1:16">
       <c r="A77" s="7" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="B77" s="8" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="C77" s="8" t="s">
         <v>20</v>
@@ -5788,21 +5784,21 @@
         <v>23</v>
       </c>
       <c r="G77" s="9" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="H77" s="8"/>
       <c r="I77" s="8"/>
       <c r="J77" s="7" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="K77" s="8" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="L77" s="9" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="M77" s="7" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="N77" s="8"/>
       <c r="O77" s="8"/>
@@ -5812,10 +5808,10 @@
     </row>
     <row r="78" s="1" customFormat="1" ht="46.8" customHeight="1" spans="1:16">
       <c r="A78" s="7" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="B78" s="8" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="C78" s="8" t="s">
         <v>20</v>
@@ -5830,21 +5826,21 @@
         <v>23</v>
       </c>
       <c r="G78" s="9" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="H78" s="10"/>
       <c r="I78" s="10"/>
       <c r="J78" s="7" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="K78" s="8" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="L78" s="9" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="M78" s="7" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="N78" s="11"/>
       <c r="O78" s="14"/>
@@ -5854,10 +5850,10 @@
     </row>
     <row r="79" s="1" customFormat="1" ht="46.8" customHeight="1" spans="1:16">
       <c r="A79" s="7" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="B79" s="8" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="C79" s="8" t="s">
         <v>20</v>
@@ -5872,21 +5868,21 @@
         <v>23</v>
       </c>
       <c r="G79" s="9" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="H79" s="10"/>
       <c r="I79" s="10"/>
       <c r="J79" s="7" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="K79" s="8" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="L79" s="9" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="M79" s="7" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="N79" s="11"/>
       <c r="O79" s="14"/>
@@ -5896,10 +5892,10 @@
     </row>
     <row r="80" s="1" customFormat="1" ht="46.8" customHeight="1" spans="1:16">
       <c r="A80" s="7" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="B80" s="8" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="C80" s="8" t="s">
         <v>20</v>
@@ -5914,21 +5910,21 @@
         <v>23</v>
       </c>
       <c r="G80" s="9" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="H80" s="10"/>
       <c r="I80" s="10"/>
       <c r="J80" s="7" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="K80" s="8" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="L80" s="9" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="M80" s="7" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="N80" s="11"/>
       <c r="O80" s="11"/>
@@ -5938,10 +5934,10 @@
     </row>
     <row r="81" s="1" customFormat="1" ht="46.8" customHeight="1" spans="1:16">
       <c r="A81" s="7" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="B81" s="8" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="C81" s="8" t="s">
         <v>20</v>
@@ -5956,21 +5952,21 @@
         <v>23</v>
       </c>
       <c r="G81" s="9" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="H81" s="10"/>
       <c r="I81" s="10"/>
       <c r="J81" s="7" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="K81" s="8" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="L81" s="9" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="M81" s="7" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="N81" s="11"/>
       <c r="O81" s="14"/>
@@ -5980,10 +5976,10 @@
     </row>
     <row r="82" s="1" customFormat="1" ht="46.8" customHeight="1" spans="1:16">
       <c r="A82" s="7" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="B82" s="8" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="C82" s="8" t="s">
         <v>20</v>
@@ -5998,21 +5994,21 @@
         <v>23</v>
       </c>
       <c r="G82" s="9" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="H82" s="10"/>
       <c r="I82" s="10"/>
       <c r="J82" s="7" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="K82" s="8" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="L82" s="9" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="M82" s="7" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="N82" s="11"/>
       <c r="O82" s="11"/>
@@ -6022,10 +6018,10 @@
     </row>
     <row r="83" s="1" customFormat="1" ht="46.8" customHeight="1" spans="1:16">
       <c r="A83" s="7" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="B83" s="8" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="C83" s="8" t="s">
         <v>20</v>
@@ -6034,27 +6030,27 @@
         <v>21</v>
       </c>
       <c r="E83" s="8" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="F83" s="9" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="G83" s="9" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="H83" s="10"/>
       <c r="I83" s="10"/>
       <c r="J83" s="7" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="K83" s="8" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="L83" s="9" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="M83" s="7" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="N83" s="11"/>
       <c r="O83" s="11"/>
@@ -6064,10 +6060,10 @@
     </row>
     <row r="84" s="1" customFormat="1" ht="46.8" customHeight="1" spans="1:16">
       <c r="A84" s="7" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="B84" s="8" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="C84" s="8" t="s">
         <v>20</v>
@@ -6082,21 +6078,21 @@
         <v>23</v>
       </c>
       <c r="G84" s="9" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="H84" s="10"/>
       <c r="I84" s="10"/>
       <c r="J84" s="7" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="K84" s="8" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="L84" s="9" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="M84" s="7" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="N84" s="11"/>
       <c r="O84" s="11"/>
@@ -6106,10 +6102,10 @@
     </row>
     <row r="85" s="1" customFormat="1" ht="46.8" customHeight="1" spans="1:16">
       <c r="A85" s="7" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="B85" s="8" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="C85" s="8" t="s">
         <v>20</v>
@@ -6124,21 +6120,21 @@
         <v>23</v>
       </c>
       <c r="G85" s="9" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="H85" s="10"/>
       <c r="I85" s="10"/>
       <c r="J85" s="7" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="K85" s="8" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="L85" s="9" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="M85" s="7" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="N85" s="11"/>
       <c r="O85" s="11"/>
@@ -6148,10 +6144,10 @@
     </row>
     <row r="86" s="1" customFormat="1" ht="46.8" customHeight="1" spans="1:16">
       <c r="A86" s="7" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="B86" s="8" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="C86" s="8" t="s">
         <v>20</v>
@@ -6166,21 +6162,21 @@
         <v>23</v>
       </c>
       <c r="G86" s="9" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="H86" s="10"/>
       <c r="I86" s="10"/>
       <c r="J86" s="7" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="K86" s="8" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="L86" s="9" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="M86" s="7" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="N86" s="11"/>
       <c r="O86" s="11"/>
@@ -6190,10 +6186,10 @@
     </row>
     <row r="87" s="1" customFormat="1" ht="46.8" customHeight="1" spans="1:16">
       <c r="A87" s="7" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="B87" s="8" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="C87" s="8" t="s">
         <v>20</v>
@@ -6208,21 +6204,21 @@
         <v>23</v>
       </c>
       <c r="G87" s="9" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="H87" s="10"/>
       <c r="I87" s="10"/>
       <c r="J87" s="7" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="K87" s="8" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="L87" s="9" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="M87" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="N87" s="11"/>
       <c r="O87" s="11"/>
@@ -6232,10 +6228,10 @@
     </row>
     <row r="88" s="1" customFormat="1" ht="46.8" customHeight="1" spans="1:16">
       <c r="A88" s="7" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="B88" s="8" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="C88" s="8" t="s">
         <v>20</v>
@@ -6250,21 +6246,21 @@
         <v>23</v>
       </c>
       <c r="G88" s="9" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="H88" s="10"/>
       <c r="I88" s="10"/>
       <c r="J88" s="7" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="K88" s="8" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="L88" s="9" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="M88" s="7" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="N88" s="11"/>
       <c r="O88" s="11"/>
@@ -6274,10 +6270,10 @@
     </row>
     <row r="89" s="1" customFormat="1" ht="46.8" customHeight="1" spans="1:16">
       <c r="A89" s="7" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="B89" s="8" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="C89" s="8" t="s">
         <v>20</v>
@@ -6292,21 +6288,21 @@
         <v>23</v>
       </c>
       <c r="G89" s="9" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="H89" s="8"/>
       <c r="I89" s="8"/>
       <c r="J89" s="7" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="K89" s="8" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="L89" s="9" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="M89" s="7" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="N89" s="8"/>
       <c r="O89" s="8"/>
@@ -6316,10 +6312,10 @@
     </row>
     <row r="90" s="1" customFormat="1" ht="46.8" customHeight="1" spans="1:16">
       <c r="A90" s="7" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B90" s="8" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="C90" s="8" t="s">
         <v>20</v>
@@ -6334,21 +6330,21 @@
         <v>23</v>
       </c>
       <c r="G90" s="9" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="H90" s="10"/>
       <c r="I90" s="10"/>
       <c r="J90" s="7" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="K90" s="8" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="L90" s="9" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="M90" s="7" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="N90" s="11"/>
       <c r="O90" s="14"/>
@@ -6358,10 +6354,10 @@
     </row>
     <row r="91" s="1" customFormat="1" ht="46.8" customHeight="1" spans="1:16">
       <c r="A91" s="7" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="B91" s="8" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="C91" s="8" t="s">
         <v>20</v>
@@ -6376,21 +6372,21 @@
         <v>23</v>
       </c>
       <c r="G91" s="9" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="H91" s="10"/>
       <c r="I91" s="10"/>
       <c r="J91" s="7" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="K91" s="8" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="L91" s="9" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="M91" s="7" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="N91" s="11"/>
       <c r="O91" s="14"/>
@@ -6400,10 +6396,10 @@
     </row>
     <row r="92" s="1" customFormat="1" ht="46.8" customHeight="1" spans="1:16">
       <c r="A92" s="7" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="B92" s="8" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="C92" s="8" t="s">
         <v>20</v>
@@ -6418,21 +6414,21 @@
         <v>23</v>
       </c>
       <c r="G92" s="9" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="H92" s="10"/>
       <c r="I92" s="10"/>
       <c r="J92" s="7" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="K92" s="8" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="L92" s="9" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="M92" s="7" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="N92" s="11"/>
       <c r="O92" s="11"/>
@@ -6442,10 +6438,10 @@
     </row>
     <row r="93" s="1" customFormat="1" ht="46.8" customHeight="1" spans="1:16">
       <c r="A93" s="7" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="B93" s="8" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="C93" s="8" t="s">
         <v>20</v>
@@ -6460,21 +6456,21 @@
         <v>23</v>
       </c>
       <c r="G93" s="9" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="H93" s="10"/>
       <c r="I93" s="10"/>
       <c r="J93" s="7" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="K93" s="8" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="L93" s="9" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="M93" s="7" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="N93" s="11"/>
       <c r="O93" s="14"/>
@@ -6484,10 +6480,10 @@
     </row>
     <row r="94" s="1" customFormat="1" ht="46.8" customHeight="1" spans="1:16">
       <c r="A94" s="7" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="B94" s="8" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="C94" s="8" t="s">
         <v>20</v>
@@ -6502,21 +6498,21 @@
         <v>23</v>
       </c>
       <c r="G94" s="9" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="H94" s="10"/>
       <c r="I94" s="10"/>
       <c r="J94" s="7" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="K94" s="8" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="L94" s="9" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="M94" s="7" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="N94" s="11"/>
       <c r="O94" s="11"/>
@@ -6526,10 +6522,10 @@
     </row>
     <row r="95" s="1" customFormat="1" ht="46.8" customHeight="1" spans="1:16">
       <c r="A95" s="7" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="B95" s="8" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="C95" s="8" t="s">
         <v>20</v>
@@ -6538,27 +6534,27 @@
         <v>21</v>
       </c>
       <c r="E95" s="8" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="F95" s="9" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="G95" s="9" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="H95" s="10"/>
       <c r="I95" s="10"/>
       <c r="J95" s="7" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="K95" s="8" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="L95" s="9" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="M95" s="7" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="N95" s="11"/>
       <c r="O95" s="11"/>
@@ -6568,10 +6564,10 @@
     </row>
     <row r="96" s="1" customFormat="1" ht="46.8" customHeight="1" spans="1:16">
       <c r="A96" s="7" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="B96" s="8" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="C96" s="8" t="s">
         <v>20</v>
@@ -6586,21 +6582,21 @@
         <v>23</v>
       </c>
       <c r="G96" s="9" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="H96" s="10"/>
       <c r="I96" s="10"/>
       <c r="J96" s="7" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="K96" s="8" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="L96" s="9" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="M96" s="7" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="N96" s="11"/>
       <c r="O96" s="11"/>
@@ -6610,10 +6606,10 @@
     </row>
     <row r="97" s="1" customFormat="1" ht="46.8" customHeight="1" spans="1:16">
       <c r="A97" s="7" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="B97" s="8" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="C97" s="8" t="s">
         <v>20</v>
@@ -6628,21 +6624,21 @@
         <v>23</v>
       </c>
       <c r="G97" s="9" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="H97" s="10"/>
       <c r="I97" s="10"/>
       <c r="J97" s="7" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="K97" s="8" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="L97" s="9" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="M97" s="7" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="N97" s="11"/>
       <c r="O97" s="11"/>
@@ -6652,10 +6648,10 @@
     </row>
     <row r="98" s="1" customFormat="1" ht="46.8" customHeight="1" spans="1:16">
       <c r="A98" s="7" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="B98" s="8" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="C98" s="8" t="s">
         <v>20</v>
@@ -6670,21 +6666,21 @@
         <v>23</v>
       </c>
       <c r="G98" s="9" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="H98" s="10"/>
       <c r="I98" s="10"/>
       <c r="J98" s="7" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="K98" s="8" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="L98" s="9" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="M98" s="7" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="N98" s="11"/>
       <c r="O98" s="11"/>
@@ -6694,10 +6690,10 @@
     </row>
     <row r="99" s="1" customFormat="1" ht="46.8" customHeight="1" spans="1:16">
       <c r="A99" s="7" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="B99" s="8" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="C99" s="8" t="s">
         <v>20</v>
@@ -6712,21 +6708,21 @@
         <v>23</v>
       </c>
       <c r="G99" s="9" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="H99" s="10"/>
       <c r="I99" s="10"/>
       <c r="J99" s="7" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="K99" s="8" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="L99" s="9" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="M99" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="N99" s="11"/>
       <c r="O99" s="11"/>
@@ -6736,10 +6732,10 @@
     </row>
     <row r="100" s="1" customFormat="1" ht="46.8" customHeight="1" spans="1:16">
       <c r="A100" s="7" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="B100" s="8" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="C100" s="8" t="s">
         <v>20</v>
@@ -6754,21 +6750,21 @@
         <v>23</v>
       </c>
       <c r="G100" s="9" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="H100" s="10"/>
       <c r="I100" s="10"/>
       <c r="J100" s="7" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="K100" s="8" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="L100" s="9" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="M100" s="7" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="N100" s="11"/>
       <c r="O100" s="11"/>
@@ -6778,10 +6774,10 @@
     </row>
     <row r="101" s="1" customFormat="1" ht="46.8" customHeight="1" spans="1:16">
       <c r="A101" s="7" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="B101" s="8" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="C101" s="8" t="s">
         <v>20</v>
@@ -6796,21 +6792,21 @@
         <v>23</v>
       </c>
       <c r="G101" s="9" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="H101" s="8"/>
       <c r="I101" s="8"/>
       <c r="J101" s="7" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="K101" s="8" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="L101" s="9" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="M101" s="7" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="N101" s="8"/>
       <c r="O101" s="8"/>
@@ -6820,10 +6816,10 @@
     </row>
     <row r="102" s="1" customFormat="1" ht="46.8" customHeight="1" spans="1:16">
       <c r="A102" s="7" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="B102" s="8" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="C102" s="8" t="s">
         <v>20</v>
@@ -6838,21 +6834,21 @@
         <v>23</v>
       </c>
       <c r="G102" s="9" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="H102" s="10"/>
       <c r="I102" s="10"/>
       <c r="J102" s="7" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="K102" s="8" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="L102" s="9" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="M102" s="7" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="N102" s="11"/>
       <c r="O102" s="14"/>
@@ -6862,10 +6858,10 @@
     </row>
     <row r="103" s="1" customFormat="1" ht="46.8" customHeight="1" spans="1:16">
       <c r="A103" s="7" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="B103" s="8" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="C103" s="8" t="s">
         <v>20</v>
@@ -6880,21 +6876,21 @@
         <v>23</v>
       </c>
       <c r="G103" s="9" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="H103" s="10"/>
       <c r="I103" s="10"/>
       <c r="J103" s="7" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="K103" s="8" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="L103" s="9" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="M103" s="7" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="N103" s="11"/>
       <c r="O103" s="14"/>
@@ -6904,10 +6900,10 @@
     </row>
     <row r="104" s="1" customFormat="1" ht="46.8" customHeight="1" spans="1:16">
       <c r="A104" s="7" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="B104" s="8" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="C104" s="8" t="s">
         <v>20</v>
@@ -6922,21 +6918,21 @@
         <v>23</v>
       </c>
       <c r="G104" s="9" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="H104" s="10"/>
       <c r="I104" s="10"/>
       <c r="J104" s="7" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="K104" s="8" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="L104" s="9" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="M104" s="7" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="N104" s="11"/>
       <c r="O104" s="11"/>
@@ -6946,10 +6942,10 @@
     </row>
     <row r="105" s="1" customFormat="1" ht="46.8" customHeight="1" spans="1:16">
       <c r="A105" s="7" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="B105" s="8" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="C105" s="8" t="s">
         <v>20</v>
@@ -6964,21 +6960,21 @@
         <v>23</v>
       </c>
       <c r="G105" s="9" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="H105" s="10"/>
       <c r="I105" s="10"/>
       <c r="J105" s="7" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="K105" s="8" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="L105" s="9" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="M105" s="7" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="N105" s="11"/>
       <c r="O105" s="14"/>
@@ -6988,10 +6984,10 @@
     </row>
     <row r="106" s="1" customFormat="1" ht="46.8" customHeight="1" spans="1:16">
       <c r="A106" s="7" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="B106" s="8" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="C106" s="8" t="s">
         <v>20</v>
@@ -7006,21 +7002,21 @@
         <v>23</v>
       </c>
       <c r="G106" s="9" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="H106" s="10"/>
       <c r="I106" s="10"/>
       <c r="J106" s="7" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="K106" s="8" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="L106" s="9" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="M106" s="7" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="N106" s="11"/>
       <c r="O106" s="11"/>
@@ -7030,10 +7026,10 @@
     </row>
     <row r="107" s="1" customFormat="1" ht="46.8" customHeight="1" spans="1:16">
       <c r="A107" s="7" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="B107" s="8" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="C107" s="8" t="s">
         <v>20</v>
@@ -7042,27 +7038,27 @@
         <v>21</v>
       </c>
       <c r="E107" s="8" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="F107" s="9" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="G107" s="9" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="H107" s="10"/>
       <c r="I107" s="10"/>
       <c r="J107" s="7" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="K107" s="8" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="L107" s="9" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="M107" s="7" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="N107" s="11"/>
       <c r="O107" s="11"/>
@@ -7072,10 +7068,10 @@
     </row>
     <row r="108" s="1" customFormat="1" ht="46.8" customHeight="1" spans="1:16">
       <c r="A108" s="7" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="B108" s="8" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="C108" s="8" t="s">
         <v>20</v>
@@ -7090,21 +7086,21 @@
         <v>23</v>
       </c>
       <c r="G108" s="9" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="H108" s="10"/>
       <c r="I108" s="10"/>
       <c r="J108" s="7" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="K108" s="8" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="L108" s="9" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="M108" s="7" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="N108" s="11"/>
       <c r="O108" s="11"/>
@@ -7114,10 +7110,10 @@
     </row>
     <row r="109" s="1" customFormat="1" ht="46.8" customHeight="1" spans="1:16">
       <c r="A109" s="7" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="B109" s="8" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="C109" s="8" t="s">
         <v>20</v>
@@ -7132,21 +7128,21 @@
         <v>23</v>
       </c>
       <c r="G109" s="9" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="H109" s="10"/>
       <c r="I109" s="10"/>
       <c r="J109" s="7" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="K109" s="8" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="L109" s="9" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="M109" s="7" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="N109" s="11"/>
       <c r="O109" s="11"/>
@@ -7156,10 +7152,10 @@
     </row>
     <row r="110" s="1" customFormat="1" ht="46.8" customHeight="1" spans="1:16">
       <c r="A110" s="7" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B110" s="8" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="C110" s="8" t="s">
         <v>20</v>
@@ -7174,21 +7170,21 @@
         <v>23</v>
       </c>
       <c r="G110" s="9" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="H110" s="10"/>
       <c r="I110" s="10"/>
       <c r="J110" s="7" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="K110" s="8" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="L110" s="9" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="M110" s="7" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="N110" s="11"/>
       <c r="O110" s="11"/>
@@ -7198,10 +7194,10 @@
     </row>
     <row r="111" s="1" customFormat="1" ht="46.8" customHeight="1" spans="1:16">
       <c r="A111" s="7" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="B111" s="8" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="C111" s="8" t="s">
         <v>20</v>
@@ -7216,21 +7212,21 @@
         <v>23</v>
       </c>
       <c r="G111" s="9" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="H111" s="10"/>
       <c r="I111" s="10"/>
       <c r="J111" s="7" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="K111" s="8" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="L111" s="9" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="M111" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="N111" s="11"/>
       <c r="O111" s="11"/>
@@ -7240,10 +7236,10 @@
     </row>
     <row r="112" s="1" customFormat="1" ht="46.8" customHeight="1" spans="1:16">
       <c r="A112" s="7" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="B112" s="8" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="C112" s="8" t="s">
         <v>20</v>
@@ -7258,21 +7254,21 @@
         <v>23</v>
       </c>
       <c r="G112" s="9" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="H112" s="10"/>
       <c r="I112" s="10"/>
       <c r="J112" s="7" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="K112" s="8" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="L112" s="9" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="M112" s="7" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="N112" s="11"/>
       <c r="O112" s="11"/>
@@ -7282,10 +7278,10 @@
     </row>
     <row r="113" s="1" customFormat="1" ht="46.8" customHeight="1" spans="1:16">
       <c r="A113" s="7" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="B113" s="8" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="C113" s="8" t="s">
         <v>20</v>
@@ -7300,21 +7296,21 @@
         <v>23</v>
       </c>
       <c r="G113" s="9" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="H113" s="8"/>
       <c r="I113" s="8"/>
       <c r="J113" s="7" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="K113" s="8" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="L113" s="9" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="M113" s="7" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="N113" s="8"/>
       <c r="O113" s="8"/>
@@ -7324,10 +7320,10 @@
     </row>
     <row r="114" s="1" customFormat="1" ht="46.8" customHeight="1" spans="1:16">
       <c r="A114" s="7" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="B114" s="8" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="C114" s="8" t="s">
         <v>20</v>
@@ -7336,27 +7332,27 @@
         <v>21</v>
       </c>
       <c r="E114" s="8" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="F114" s="9" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="G114" s="9" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="H114" s="8"/>
       <c r="I114" s="8"/>
       <c r="J114" s="7" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="K114" s="8" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="L114" s="9" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="M114" s="7" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="N114" s="8"/>
       <c r="O114" s="8"/>
@@ -7366,10 +7362,10 @@
     </row>
     <row r="115" s="1" customFormat="1" ht="46.8" customHeight="1" spans="1:16">
       <c r="A115" s="7" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="B115" s="8" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="C115" s="8" t="s">
         <v>20</v>
@@ -7378,27 +7374,27 @@
         <v>21</v>
       </c>
       <c r="E115" s="8" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="F115" s="9" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="G115" s="9" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="H115" s="8"/>
       <c r="I115" s="8"/>
       <c r="J115" s="7" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="K115" s="8" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="L115" s="9" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="M115" s="7" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="N115" s="8"/>
       <c r="O115" s="8"/>
@@ -7408,10 +7404,10 @@
     </row>
     <row r="116" s="1" customFormat="1" ht="46.8" customHeight="1" spans="1:16">
       <c r="A116" s="7" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="B116" s="8" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="C116" s="8" t="s">
         <v>20</v>
@@ -7420,27 +7416,27 @@
         <v>21</v>
       </c>
       <c r="E116" s="8" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="F116" s="9" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="G116" s="9" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="H116" s="8"/>
       <c r="I116" s="8"/>
       <c r="J116" s="7" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="K116" s="8" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="L116" s="9" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="M116" s="7" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="N116" s="8"/>
       <c r="O116" s="8"/>
@@ -7450,10 +7446,10 @@
     </row>
     <row r="117" s="1" customFormat="1" ht="46.8" customHeight="1" spans="1:16">
       <c r="A117" s="7" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="B117" s="8" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="C117" s="8" t="s">
         <v>20</v>
@@ -7462,27 +7458,27 @@
         <v>21</v>
       </c>
       <c r="E117" s="8" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="F117" s="9" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="G117" s="9" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="H117" s="8"/>
       <c r="I117" s="8"/>
       <c r="J117" s="7" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="K117" s="8" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="L117" s="9" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="M117" s="7" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="N117" s="8"/>
       <c r="O117" s="8"/>
